--- a/outputs-r202/f__Dialisteraceae.xlsx
+++ b/outputs-r202/f__Dialisteraceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -505,6 +510,11 @@
           <t>g__Dialister</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>g__Dialister</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -535,6 +545,11 @@
           <t>g__Dialister</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>g__Dialister</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -561,6 +576,11 @@
         <v>0.9224669864999845</v>
       </c>
       <c r="H4" t="inlineStr">
+        <is>
+          <t>g__Dialister</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>g__Dialister</t>
         </is>

--- a/outputs-r202/f__Dialisteraceae.xlsx
+++ b/outputs-r202/f__Dialisteraceae.xlsx
@@ -484,7 +484,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>RUG411.fasta</t>
+          <t>RUG005.fasta</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -519,26 +519,26 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>RUG781.fasta</t>
+          <t>hRUG872.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>2.220006611917336e-14</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.8840238425164139</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.220006611917336e-14</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.1159761574835195</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.220006611917336e-14</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0.8840238425164139</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
